--- a/medicine/Enfance/Le_Pénultième_Péril/Le_Pénultième_Péril.xlsx
+++ b/medicine/Enfance/Le_Pénultième_Péril/Le_Pénultième_Péril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Pénultième Péril (The Penultimate Peril) est le douzième tome de la série Les Désastreuses Aventures des orphelins Baudelaire de Lemony Snicket.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été recueillis par Kit Snicket, sœur de l'auteur de la série Lemony Snicket, Violette, Klaus et Prunille Baudelaire se voient confier une nouvelle mission : s'infiltrer dans la dernière cachette de V.D.C., l'Hôtel Dénouement, déguisés tous les trois en grooms. Les Volontaires doivent en effet tenir une grande réunion dans deux jours, et les Baudelaire sont chargés de vérifier que l'hôtel est un lieu sûr. Kit, enceinte, part en mer pour essayer de retrouver le capitaine Virlevent.
 Les enfants, dûment déguisés, rejoignent l'Hôtel Dénouement, construit au bord d'un étang dans lequel il se reflète - détail important, car tout le tome est construit autour du thème du miroir et des faux-semblants. Ils sont accueillis par le gérant de l'hôtel... ou son frère jumeau,  le problème étant que Frank est un Volontaire et qu'Ernest est un ennemi. Incapables de faire la différence, les Baudelaire sont envoyés dans trois missions séparées, racontées, pour la première fois, dans trois chapitres simultanés.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme dans les deux tomes précédents, l'histoire ne cesse ici de se complexifier. En particulier, les orphelins Baudelaire réalisent que les choses ne sont pas toutes blanches ou toutes noires. Eux-mêmes sont considérés comme des voyous par un grand nombre de gens et, au cours du roman, commettent un certain nombre de mauvaises actions, de l'assassinat de Dewey à l'incendie de l'hôtel. Ils apprennent également que leurs parents ont visiblement eut aussi leur part d'ombre, impliquant notamment des fléchettes empoisonnées. Quant au comte Olaf, il s'avère au contraire plus fragile que précédemment, révélant notamment sa peine quand ses anciens alliés le trahissent, ou mentionnant qu'il a connu la mère des Baudelaire lorsqu'ils étaient tous les deux enfants. Lorsque les Baudelaire lui demandent de poser son lance-harpons, et d'arrêter de commettre des crimes, il répond ainsi : « Mais que faire d'autre ? », sous-entendant qu'il est coincé dans un rôle qu'il ne sait pas comment quitter. Plus que jamais, les frontières entre bons et méchants se brouillent. Le roman s'achève sur une question qui taraude les Baudelaire : alors que les précédents romans s'achevaient sur la question « qu'allaients-ils devenir ? », ils se demandent désormais ce qu'ils sont devenus.
 </t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le titre du douzième tome ne fut connu que la veille même de sa parution. Un site Internet lui a été consacré avant la parution, intitulé The Nameless Novel (le roman sans-titre) : son but était de trouver le titre du prochain tome des orphelins Baudelaire. L'opération, basée sur trois mois, permettait aux participants de participer à diverses épreuves dont les récompenses comprenaient des morceaux d'une page du roman (découpée en neuf tranches, certains noms étant noircis), d'une illustration d'Helquist et enfin de la couverture elle-même. Plusieurs faux titres avaient été proposés au fil du titre comme fausses pistes, parmi lesquels The Horrid Hotel. Le site est aujourd'hui fermé.
 Bien que l'écriture de la série ait à la fois comporté une part de planification et d'improvisation, Daniel Handler affirme que ce tome est le seul qu'il ait dû réorganiser par rapport à ses plans d'origine. Le retour à la ville des Baudelaire devait fournir aux Baudelaire l'occasion de revenir dans la maison du comte Olaf où ils trouveraient des informations importantes dans ses papiers ; or dans le tome I il était déjà stipulé que Klaus avait examiné tous les documents en question, ce qui conduisit à abandonner cette sous-intrigue.</t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Allusions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'homme que Kit Snicket cite dans le chapitre I est Martin Luther King : « j'ai la croyance que la vérité sans armes et l'amour désintéressé auront le dernier mot dans le monde réel. Voila pourquoi le Juste, temporairement vaincu, est plus fort que le Mal triomphant. »
 L'homme à l'origine de l'expression « La perpétuelle lutte pour l'espace et la nourriture » est Malthus.
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,11 +668,13 @@
           <t>Traduction française</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le nom de jeune fille d'Esmé est révélé : Squalor. Dans la version originale, ce nom reste un mystère, Squalor étant en fait le nom de famille de son mari (plus tard adapté en d'Eschemizerre dans la traduction française).
 Les premiers/secondes prénoms de deux personnages sont révélés par les enfants Baudelaire, bien que le lecteur ne les ait jamais vus les rencontrer auparavant : Jérôme (Salomon) d'Eschemizerre et la Juge (Judith Sybil) Abott. La raison en est que, dans la version originale des livres, ces personnages se nomment Jérôme Squalor et juge Strauss, ce qui explique pourquoi on tend à les confondre avec JS, dont ils partagent les initiales. Lors de leur entrée en scène, néanmoins, la traduction française dut changer leurs noms par souci d'adaptation, mais sans savoir que leurs initiales auraient une importance capitale dans les tomes encore non-publiés à l'époque. Rose-Marie Vassalo se vit alors obligée de leur inventer ces prénoms.
-Rose-Marie Vassalo a pris la décision de ne pas traduire un passage chiffré en code Sébald présent dans la version originale[1] ; le dialogue en question est toujours là, mais sans trace de message secret. Lorsque Dewey/Frank/Ernest explique aux enfants le fonctionnement de l'hôtel, il utilise le code Sébald pour dire « I can't tell if you are in or enemies please respond » (« je ne saurais dire si vous êtes des nôtres ou des ennemis, s'il vous plaît répondez »). Les orphelins Baudelaire ne comprennent pas son intention (du fait de leur ignorance du code Sébald), ce qui a le mérite d'expliquer pourquoi, plus tard, Franck/Dewey/Ernest « fronça les sourcils comme s'ils avaient mal répondu à sa question. »</t>
+Rose-Marie Vassalo a pris la décision de ne pas traduire un passage chiffré en code Sébald présent dans la version originale ; le dialogue en question est toujours là, mais sans trace de message secret. Lorsque Dewey/Frank/Ernest explique aux enfants le fonctionnement de l'hôtel, il utilise le code Sébald pour dire « I can't tell if you are in or enemies please respond » (« je ne saurais dire si vous êtes des nôtres ou des ennemis, s'il vous plaît répondez »). Les orphelins Baudelaire ne comprennent pas son intention (du fait de leur ignorance du code Sébald), ce qui a le mérite d'expliquer pourquoi, plus tard, Franck/Dewey/Ernest « fronça les sourcils comme s'ils avaient mal répondu à sa question. »</t>
         </is>
       </c>
     </row>
@@ -662,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le_P%C3%A9nulti%C3%A8me_P%C3%A9ril</t>
+          <t>Le_Pénultième_Péril</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +702,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2019, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte le roman dans le cinquième et sixième épisodes de la troisième saison.
 </t>
